--- a/predict/2023/saved/week2.xlsx
+++ b/predict/2023/saved/week2.xlsx
@@ -106,594 +106,603 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Youngstown St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Youngstown St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Ohio wins</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Delaware], Calculate() - [?] team playing [DIVISION 1 FBS] team, Penn State wins</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>66.4</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Austin Peay], Calculate() - [?] team playing [DIVISION 1 FBS] team, Tennessee wins</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>Grambling</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Grambling], Calculate() - [?] team playing [DIVISION 1 FBS] team, LSU wins</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>85.1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [UC Davis], Calculate() - [?] team playing [DIVISION 1 FBS] team, Oregon wins</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>53.4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>97.3</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2023-09-09</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Lafayette], Calculate() - [?] team playing [DIVISION 1 FBS] team, Duke wins</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Delaware], Calculate() - [?] team playing [DIVISION 1 FBS] team, Army wins</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Holy Cross], Calculate() - [?] team playing [DIVISION 1 FBS] team, Houston wins</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t>Warning: cannot predict, both teams missing, fix the merge spreadsheets</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [E Illinois], Calculate() - [?] team playing [DIVISION 1 FBS] team, Bowling Green wins</t>
+  </si>
+  <si>
+    <t>E Kentucky</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [E Kentucky], Calculate() - [?] team playing [DIVISION 1 FBS] team, Kentucky wins</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Southern Utah], Calculate() - [?] team playing [DIVISION 1 FBS] team, BYU wins</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Richmond], Calculate() - [?] team playing [DIVISION 1 FBS] team, Michigan wins</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>NU</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FLA</t>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>80.6</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MASS</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Youngstown St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Youngstown St], Calculate() - [?] team playing [DIVISION 1 FBS] team, Ohio wins</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Delaware], Calculate() - [?] team playing [DIVISION 1 FBS] team, Penn State wins</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>66.4</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Austin Peay</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Austin Peay], Calculate() - [?] team playing [DIVISION 1 FBS] team, Tennessee wins</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>65.1</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>89.1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Grambling</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Grambling], Calculate() - [?] team playing [DIVISION 1 FBS] team, LSU wins</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>14.9</t>
-  </si>
-  <si>
-    <t>85.1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>UC Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [UC Davis], Calculate() - [?] team playing [DIVISION 1 FBS] team, Oregon wins</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Appalachian St</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>53.4</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>97.3</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Lafayette], Calculate() - [?] team playing [DIVISION 1 FBS] team, Duke wins</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>88.1</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Delaware], Calculate() - [?] team playing [DIVISION 1 FBS] team, Army wins</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>Holy Cross</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Holy Cross], Calculate() - [?] team playing [DIVISION 1 FBS] team, Houston wins</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>74.6</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>NC Central</t>
-  </si>
-  <si>
-    <t>Warning: cannot predict, both teams missing, fix the merge spreadsheets</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [E Illinois], Calculate() - [?] team playing [DIVISION 1 FBS] team, Bowling Green wins</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>E Kentucky</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [E Kentucky], Calculate() - [?] team playing [DIVISION 1 FBS] team, Kentucky wins</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Southern Utah</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Southern Utah], Calculate() - [?] team playing [DIVISION 1 FBS] team, BYU wins</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Richmond], Calculate() - [?] team playing [DIVISION 1 FBS] team, Michigan wins</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>80.6</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
     <t>Texas St</t>
   </si>
   <si>
@@ -703,9 +712,6 @@
     <t>UTSA</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Wagner</t>
   </si>
   <si>
@@ -914,12 +920,6 @@
   </si>
   <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>UNT</t>
   </si>
   <si>
     <t>59</t>
@@ -1773,7 +1773,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>41.797</v>
@@ -1788,103 +1788,103 @@
         <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
       </c>
       <c r="G7">
         <v>8.196999999999999</v>
       </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>31.497</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1893,68 +1893,68 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>26.897</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1963,53 +1963,53 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>5.997</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -2021,10 +2021,10 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -2033,47 +2033,47 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G14">
         <v>-8.202999999999999</v>
       </c>
       <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
         <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -2103,27 +2103,27 @@
         <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G16">
         <v>-16.603</v>
@@ -2138,33 +2138,33 @@
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -2173,27 +2173,27 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>13.797</v>
@@ -2205,22 +2205,22 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
@@ -2231,10 +2231,10 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -2243,117 +2243,117 @@
         <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20">
+        <v>-2.103</v>
+      </c>
+      <c r="H20" t="s">
         <v>125</v>
       </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20">
-        <v>2.097</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>126</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>127</v>
       </c>
-      <c r="J20" t="s">
-        <v>128</v>
-      </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>131</v>
-      </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>19.197</v>
       </c>
       <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
         <v>132</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>133</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G22">
         <v>-17.903</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -2368,48 +2368,48 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G23">
         <v>-23.503</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>145</v>
-      </c>
-      <c r="I24" t="s">
-        <v>146</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -2418,158 +2418,158 @@
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
         <v>148</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>149</v>
       </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>5.097</v>
       </c>
       <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" t="s">
         <v>151</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>152</v>
       </c>
-      <c r="J25" t="s">
-        <v>153</v>
-      </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" t="s">
         <v>154</v>
       </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G26">
         <v>-2.103</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G27">
         <v>7.897</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G28">
         <v>15.697</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="J28" t="s">
         <v>164</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2581,10 +2581,10 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
@@ -2593,12 +2593,12 @@
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -2613,7 +2613,7 @@
         <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>-1.703</v>
@@ -2628,18 +2628,18 @@
         <v>174</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -2651,10 +2651,10 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
@@ -2663,27 +2663,27 @@
         <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <v>-8.303000000000001</v>
@@ -2695,24 +2695,24 @@
         <v>173</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
         <v>29</v>
@@ -2733,50 +2733,50 @@
         <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2788,10 +2788,10 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
@@ -2800,18 +2800,18 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -2823,10 +2823,10 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
@@ -2835,12 +2835,12 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -2887,10 +2887,10 @@
         <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>15.397</v>
@@ -2905,12 +2905,12 @@
         <v>164</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -2945,16 +2945,16 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
@@ -2966,132 +2966,132 @@
         <v>31.997</v>
       </c>
       <c r="H40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <v>11.397</v>
       </c>
       <c r="H41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E42" t="s">
         <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G42">
         <v>-15.603</v>
       </c>
       <c r="H42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="G43">
         <v>20.397</v>
       </c>
       <c r="H43" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J43" t="s">
         <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -3103,10 +3103,10 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
@@ -3115,21 +3115,21 @@
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
         <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
       </c>
       <c r="E45" t="s">
         <v>29</v>
@@ -3141,27 +3141,27 @@
         <v>30.797</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J45" t="s">
         <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -3173,10 +3173,10 @@
         <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
@@ -3185,88 +3185,88 @@
         <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>33.697</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J47" t="s">
         <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>8.897</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
@@ -3278,10 +3278,10 @@
         <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
@@ -3290,18 +3290,18 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -3313,10 +3313,10 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
@@ -3325,18 +3325,18 @@
         <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -3348,10 +3348,10 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I51" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
@@ -3360,53 +3360,53 @@
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E52" t="s">
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G52">
         <v>26.597</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J52" t="s">
         <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3418,10 +3418,10 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I53" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
@@ -3430,21 +3430,21 @@
         <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -3465,88 +3465,88 @@
         <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G55">
         <v>19.297</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D56" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G56">
         <v>1.197</v>
       </c>
       <c r="H56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K56" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
@@ -3558,10 +3558,10 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J57" t="s">
         <v>18</v>
@@ -3570,77 +3570,77 @@
         <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="G58">
         <v>-17.103</v>
       </c>
       <c r="H58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J58" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K58" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G59">
         <v>25.497</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
         <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3660,7 +3660,7 @@
         <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G60">
         <v>10.097</v>
@@ -3675,7 +3675,7 @@
         <v>308</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3692,10 +3692,10 @@
         <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61">
         <v>5.197</v>
@@ -3707,10 +3707,10 @@
         <v>313</v>
       </c>
       <c r="J61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K61" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3745,7 +3745,7 @@
         <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3756,31 +3756,31 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
         <v>318</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G63">
         <v>-3.403</v>
       </c>
       <c r="H63" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I63" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J63" t="s">
         <v>319</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3815,7 +3815,7 @@
         <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3826,31 +3826,31 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G65">
         <v>19.297</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3867,10 +3867,10 @@
         <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G66">
         <v>8.897</v>
@@ -3882,10 +3882,10 @@
         <v>328</v>
       </c>
       <c r="J66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K66" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3896,16 +3896,16 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
         <v>305</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G67">
         <v>10.097</v>
@@ -3920,7 +3920,7 @@
         <v>308</v>
       </c>
       <c r="K67" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3975,22 +3975,22 @@
         <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G69">
         <v>1.397</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J69" t="s">
         <v>171</v>
       </c>
       <c r="K69" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4048,10 +4048,10 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J71" t="s">
         <v>18</v>
@@ -4095,7 +4095,7 @@
         <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4115,7 +4115,7 @@
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G73">
         <v>26.497</v>
@@ -4130,7 +4130,7 @@
         <v>33</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4147,25 +4147,25 @@
         <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G74">
-        <v>-1.603</v>
+        <v>6.097</v>
       </c>
       <c r="H74" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
       <c r="I74" t="s">
-        <v>142</v>
+        <v>323</v>
       </c>
       <c r="J74" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4185,7 +4185,7 @@
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G75">
         <v>35.697</v>
@@ -4200,7 +4200,7 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4223,10 +4223,10 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J76" t="s">
         <v>18</v>
@@ -4252,10 +4252,10 @@
         <v>370</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G77">
         <v>-8.103</v>
@@ -4267,10 +4267,10 @@
         <v>372</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4287,10 +4287,10 @@
         <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G78">
         <v>-11.703</v>
@@ -4302,10 +4302,10 @@
         <v>377</v>
       </c>
       <c r="J78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K78" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4386,31 +4386,31 @@
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="G81">
         <v>-26.803</v>
       </c>
       <c r="H81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J81" t="s">
         <v>29</v>
       </c>
       <c r="K81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4500,7 +4500,7 @@
         <v>401</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G84">
         <v>4.197</v>
@@ -4515,7 +4515,7 @@
         <v>404</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4526,16 +4526,16 @@
         <v>36</v>
       </c>
       <c r="C85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" t="s">
         <v>132</v>
       </c>
-      <c r="D85" t="s">
-        <v>133</v>
-      </c>
       <c r="E85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="G85">
         <v>13.997</v>
@@ -4547,10 +4547,10 @@
         <v>360</v>
       </c>
       <c r="J85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K85" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4561,16 +4561,16 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
         <v>52</v>
-      </c>
-      <c r="D86" t="s">
-        <v>53</v>
       </c>
       <c r="E86" t="s">
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G86">
         <v>-35.303</v>
@@ -4585,7 +4585,7 @@
         <v>29</v>
       </c>
       <c r="K86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
